--- a/243_テーブル項目定義.xlsx
+++ b/243_テーブル項目定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2700" windowWidth="15330" windowHeight="4785" tabRatio="731"/>
+    <workbookView xWindow="1335" yWindow="2700" windowWidth="15330" windowHeight="4785" tabRatio="731" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoomManagements表" sheetId="59" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">RoomManagements表!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1438,10 +1439,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AvailableVlass</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BYTE</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1804,6 +1801,10 @@
   </si>
   <si>
     <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AvailableClass</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3428,7 +3429,7 @@
   </sheetPr>
   <dimension ref="A1:CL32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="V12" sqref="V12:X12"/>
     </sheetView>
   </sheetViews>
@@ -3618,7 +3619,7 @@
       <c r="BM2" s="28"/>
       <c r="BN2" s="29"/>
       <c r="BO2" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
@@ -3632,7 +3633,7 @@
       <c r="BY2" s="28"/>
       <c r="BZ2" s="29"/>
       <c r="CA2" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="CB2" s="28"/>
       <c r="CC2" s="28"/>
@@ -4280,7 +4281,7 @@
       <c r="Q9" s="127"/>
       <c r="R9" s="128"/>
       <c r="S9" s="101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T9" s="102"/>
       <c r="U9" s="103"/>
@@ -4390,7 +4391,7 @@
       <c r="Q10" s="127"/>
       <c r="R10" s="128"/>
       <c r="S10" s="101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="103"/>
@@ -4610,7 +4611,7 @@
       <c r="Q12" s="127"/>
       <c r="R12" s="128"/>
       <c r="S12" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="103"/>
@@ -4970,7 +4971,7 @@
       <c r="AO15" s="102"/>
       <c r="AP15" s="103"/>
       <c r="AQ15" s="151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR15" s="148"/>
       <c r="AS15" s="148"/>
@@ -6819,6 +6820,12 @@
     <mergeCell ref="AI16:AL16"/>
     <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC16:AD16"/>
     <mergeCell ref="CH17:CL17"/>
     <mergeCell ref="CH15:CL15"/>
     <mergeCell ref="CH16:CL16"/>
@@ -6830,15 +6837,7 @@
     <mergeCell ref="AQ16:BL16"/>
     <mergeCell ref="AI15:AL15"/>
     <mergeCell ref="AQ17:BL17"/>
-    <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:U16"/>
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="Y16:Z16"/>
     <mergeCell ref="AA16:AB16"/>
@@ -6848,8 +6847,14 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="CH14:CL14"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AQ14:BL14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AI14:AL14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="K17:R17"/>
@@ -6860,17 +6865,12 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="K14:R14"/>
     <mergeCell ref="S14:U14"/>
-    <mergeCell ref="CH13:CL13"/>
-    <mergeCell ref="CH14:CL14"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AQ14:BL14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AI14:AL14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:U16"/>
     <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AG14:AH14"/>
@@ -6894,6 +6894,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="BM13:BT13"/>
+    <mergeCell ref="CH13:CL13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="K13:R13"/>
@@ -6916,21 +6917,6 @@
     <mergeCell ref="S11:U11"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="CH9:CL9"/>
-    <mergeCell ref="CH10:CL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="BM10:BT10"/>
-    <mergeCell ref="AQ9:BL9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AQ10:BL10"/>
-    <mergeCell ref="AI9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AI10:AL10"/>
-    <mergeCell ref="BM9:BT9"/>
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:Z10"/>
@@ -6949,6 +6935,21 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="CH9:CL9"/>
+    <mergeCell ref="CH10:CL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="BM10:BT10"/>
+    <mergeCell ref="AQ9:BL9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AQ10:BL10"/>
+    <mergeCell ref="AI9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AI10:AL10"/>
+    <mergeCell ref="BM9:BT9"/>
     <mergeCell ref="CH7:CL7"/>
     <mergeCell ref="AQ7:BL7"/>
     <mergeCell ref="CC5:CL6"/>
@@ -7219,7 +7220,7 @@
       <c r="BM2" s="28"/>
       <c r="BN2" s="29"/>
       <c r="BO2" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
@@ -7233,7 +7234,7 @@
       <c r="BY2" s="28"/>
       <c r="BZ2" s="29"/>
       <c r="CA2" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CB2" s="28"/>
       <c r="CC2" s="28"/>
@@ -7753,7 +7754,7 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
@@ -7763,7 +7764,7 @@
       <c r="I8" s="125"/>
       <c r="J8" s="125"/>
       <c r="K8" s="126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L8" s="127"/>
       <c r="M8" s="127"/>
@@ -7805,7 +7806,7 @@
       <c r="AO8" s="102"/>
       <c r="AP8" s="103"/>
       <c r="AQ8" s="147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR8" s="148"/>
       <c r="AS8" s="148"/>
@@ -7881,12 +7882,12 @@
       <c r="Q9" s="127"/>
       <c r="R9" s="128"/>
       <c r="S9" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T9" s="102"/>
       <c r="U9" s="103"/>
       <c r="V9" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W9" s="102"/>
       <c r="X9" s="103"/>
@@ -7901,7 +7902,7 @@
       <c r="AC9" s="101"/>
       <c r="AD9" s="103"/>
       <c r="AE9" s="101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF9" s="103"/>
       <c r="AG9" s="101"/>
@@ -7915,7 +7916,7 @@
       <c r="AO9" s="102"/>
       <c r="AP9" s="103"/>
       <c r="AQ9" s="151" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AR9" s="148"/>
       <c r="AS9" s="148"/>
@@ -7991,7 +7992,7 @@
       <c r="Q10" s="127"/>
       <c r="R10" s="128"/>
       <c r="S10" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="103"/>
@@ -8023,7 +8024,7 @@
       <c r="AO10" s="102"/>
       <c r="AP10" s="103"/>
       <c r="AQ10" s="151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AR10" s="148"/>
       <c r="AS10" s="148"/>
@@ -8089,7 +8090,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="23"/>
       <c r="K11" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" s="127"/>
       <c r="M11" s="127"/>
@@ -8099,12 +8100,12 @@
       <c r="Q11" s="127"/>
       <c r="R11" s="128"/>
       <c r="S11" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T11" s="102"/>
       <c r="U11" s="103"/>
       <c r="V11" s="101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W11" s="102"/>
       <c r="X11" s="103"/>
@@ -8197,7 +8198,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="23"/>
       <c r="K12" s="126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L12" s="127"/>
       <c r="M12" s="127"/>
@@ -8207,12 +8208,12 @@
       <c r="Q12" s="127"/>
       <c r="R12" s="128"/>
       <c r="S12" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="103"/>
       <c r="V12" s="101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W12" s="102"/>
       <c r="X12" s="103"/>
@@ -8305,7 +8306,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="K13" s="126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L13" s="127"/>
       <c r="M13" s="127"/>
@@ -8315,12 +8316,12 @@
       <c r="Q13" s="127"/>
       <c r="R13" s="128"/>
       <c r="S13" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T13" s="102"/>
       <c r="U13" s="103"/>
       <c r="V13" s="101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W13" s="102"/>
       <c r="X13" s="103"/>
@@ -8347,7 +8348,7 @@
       <c r="AO13" s="102"/>
       <c r="AP13" s="103"/>
       <c r="AQ13" s="151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AR13" s="148"/>
       <c r="AS13" s="148"/>
@@ -10234,6 +10235,11 @@
     <mergeCell ref="AI9:AL9"/>
     <mergeCell ref="AQ9:BL9"/>
     <mergeCell ref="BM9:BT9"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AL12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:R9"/>
@@ -10258,11 +10264,6 @@
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AL12"/>
     <mergeCell ref="AM12:AP12"/>
     <mergeCell ref="AM9:AP9"/>
     <mergeCell ref="S10:U10"/>
@@ -10772,7 +10773,7 @@
       <c r="BM2" s="28"/>
       <c r="BN2" s="29"/>
       <c r="BO2" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
@@ -10786,7 +10787,7 @@
       <c r="BY2" s="28"/>
       <c r="BZ2" s="29"/>
       <c r="CA2" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CB2" s="28"/>
       <c r="CC2" s="28"/>
@@ -14091,8 +14092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18:BL18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75"/>
@@ -14721,12 +14722,12 @@
       <c r="Q7" s="136"/>
       <c r="R7" s="137"/>
       <c r="S7" s="98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T7" s="99"/>
       <c r="U7" s="100"/>
       <c r="V7" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W7" s="99"/>
       <c r="X7" s="100"/>
@@ -14755,7 +14756,7 @@
       <c r="AO7" s="99"/>
       <c r="AP7" s="100"/>
       <c r="AQ7" s="111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR7" s="112"/>
       <c r="AS7" s="112"/>
@@ -14831,12 +14832,12 @@
       <c r="Q8" s="127"/>
       <c r="R8" s="128"/>
       <c r="S8" s="101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="103"/>
       <c r="V8" s="101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W8" s="102"/>
       <c r="X8" s="103"/>
@@ -14929,7 +14930,7 @@
       <c r="I9" s="125"/>
       <c r="J9" s="125"/>
       <c r="K9" s="126" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L9" s="127"/>
       <c r="M9" s="127"/>
@@ -14971,7 +14972,7 @@
       <c r="AO9" s="102"/>
       <c r="AP9" s="103"/>
       <c r="AQ9" s="151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AR9" s="148"/>
       <c r="AS9" s="148"/>
@@ -17974,7 +17975,7 @@
   <dimension ref="A1:CL32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CA2" sqref="CA2:CL3"/>
+      <selection activeCell="AC22" sqref="AC22:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75"/>
@@ -18163,7 +18164,7 @@
       <c r="BM2" s="28"/>
       <c r="BN2" s="29"/>
       <c r="BO2" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
@@ -18177,7 +18178,7 @@
       <c r="BY2" s="28"/>
       <c r="BZ2" s="29"/>
       <c r="CA2" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CB2" s="28"/>
       <c r="CC2" s="28"/>
@@ -18587,7 +18588,7 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
@@ -18597,7 +18598,7 @@
       <c r="I7" s="109"/>
       <c r="J7" s="109"/>
       <c r="K7" s="135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L7" s="136"/>
       <c r="M7" s="136"/>
@@ -18607,12 +18608,12 @@
       <c r="Q7" s="136"/>
       <c r="R7" s="137"/>
       <c r="S7" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" s="99"/>
       <c r="U7" s="100"/>
       <c r="V7" s="98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W7" s="99"/>
       <c r="X7" s="100"/>
@@ -18639,7 +18640,7 @@
       <c r="AO7" s="99"/>
       <c r="AP7" s="100"/>
       <c r="AQ7" s="111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AR7" s="112"/>
       <c r="AS7" s="112"/>
@@ -18705,7 +18706,7 @@
       <c r="I8" s="125"/>
       <c r="J8" s="125"/>
       <c r="K8" s="126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="127"/>
       <c r="M8" s="127"/>
@@ -18715,7 +18716,7 @@
       <c r="Q8" s="127"/>
       <c r="R8" s="128"/>
       <c r="S8" s="101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="103"/>
@@ -18745,7 +18746,7 @@
       <c r="AO8" s="102"/>
       <c r="AP8" s="103"/>
       <c r="AQ8" s="147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR8" s="148"/>
       <c r="AS8" s="148"/>
@@ -21634,7 +21635,7 @@
       <c r="BM2" s="28"/>
       <c r="BN2" s="29"/>
       <c r="BO2" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
@@ -21648,7 +21649,7 @@
       <c r="BY2" s="28"/>
       <c r="BZ2" s="29"/>
       <c r="CA2" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CB2" s="28"/>
       <c r="CC2" s="28"/>
@@ -22058,7 +22059,7 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
@@ -22068,7 +22069,7 @@
       <c r="I7" s="109"/>
       <c r="J7" s="109"/>
       <c r="K7" s="135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" s="136"/>
       <c r="M7" s="136"/>
@@ -22078,12 +22079,12 @@
       <c r="Q7" s="136"/>
       <c r="R7" s="137"/>
       <c r="S7" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T7" s="99"/>
       <c r="U7" s="100"/>
       <c r="V7" s="98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W7" s="99"/>
       <c r="X7" s="100"/>
@@ -22110,7 +22111,7 @@
       <c r="AO7" s="99"/>
       <c r="AP7" s="100"/>
       <c r="AQ7" s="111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AR7" s="112"/>
       <c r="AS7" s="112"/>
@@ -22166,7 +22167,7 @@
       </c>
       <c r="B8" s="123"/>
       <c r="C8" s="124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
@@ -22176,7 +22177,7 @@
       <c r="I8" s="125"/>
       <c r="J8" s="125"/>
       <c r="K8" s="126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" s="127"/>
       <c r="M8" s="127"/>
@@ -22186,12 +22187,12 @@
       <c r="Q8" s="127"/>
       <c r="R8" s="128"/>
       <c r="S8" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="103"/>
       <c r="V8" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W8" s="102"/>
       <c r="X8" s="103"/>
@@ -22216,7 +22217,7 @@
       <c r="AO8" s="102"/>
       <c r="AP8" s="103"/>
       <c r="AQ8" s="147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AR8" s="148"/>
       <c r="AS8" s="148"/>
